--- a/MiniProgram_api_test/TestCase/Test_case.xlsx
+++ b/MiniProgram_api_test/TestCase/Test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>Case_Name</t>
   </si>
@@ -57,6 +57,9 @@
     <t>https://servicewechat.com</t>
   </si>
   <si>
+    <t>a=Excel('headers','1')</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>{"scope":["snsapi_base"]}</t>
   </si>
   <si>
+    <t>response['baseresponse']['errcode']=42001</t>
+  </si>
+  <si>
     <t>$code=response['code']</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>$openid=response['data']['openid']</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>获取xAuthToken</t>
   </si>
   <si>
@@ -145,9 +154,6 @@
   </si>
   <si>
     <t>response['message']=品类编码不能为空</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>加入购物车</t>
@@ -254,11 +260,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -293,34 +299,6 @@
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -331,6 +309,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -339,16 +407,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,83 +444,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -454,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +682,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -685,19 +730,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -720,56 +773,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,137 +799,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,12 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1322,8 +1322,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1367,10 +1367,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1385,596 +1385,600 @@
         <v>12</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="99" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="409.5" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="409.5" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="J16" s="12"/>
       <c r="K16" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="49.5" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="J17" s="12"/>
       <c r="K17" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="409.5" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
+      <c r="A18" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8" t="s">
-        <v>17</v>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" ht="16.5" spans="2:3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" ht="16.5" spans="2:3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" ht="16.5" spans="2:3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" ht="16.5" spans="2:3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" ht="16.5" spans="2:3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/MiniProgram_api_test/TestCase/Test_case.xlsx
+++ b/MiniProgram_api_test/TestCase/Test_case.xlsx
@@ -54,10 +54,10 @@
     <t>获取Code</t>
   </si>
   <si>
-    <t>https://servicewechat.com</t>
-  </si>
-  <si>
-    <t>a=Excel('headers','1')</t>
+    <t>Excel('Uat_Host','3')</t>
+  </si>
+  <si>
+    <t>Excel('headers','2')</t>
   </si>
   <si>
     <t>post</t>
@@ -66,7 +66,11 @@
     <t>/wxa-dev-logic/jslogin?_r=0.5663952684931726&amp;appid=wx27571b9f1f67888a&amp;platform=0&amp;ext_appid=&amp;os=win&amp;clientversion=1021808300&amp;newticket=AA5RFiishN8FqMDRK2eXMTQo61vBnPZJ7nodv1icVMU&amp;os=win&amp;clientversion=1.02.1808300&amp;osversion=10.0.14393</t>
   </si>
   <si>
-    <t>{"scope":["snsapi_base"]}</t>
+    <t>{
+"scope":["snsapi_base"],
+"apptype":Excel('type','2'),
+"apptype":Excel('type','3')
+}</t>
   </si>
   <si>
     <t>response['baseresponse']['errcode']=42001</t>
@@ -260,11 +264,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -299,6 +303,50 @@
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -309,10 +357,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,34 +420,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -360,24 +427,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,60 +448,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -460,73 +464,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,55 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,49 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,30 +687,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -724,8 +704,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,6 +742,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -755,30 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -787,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1323,7 +1327,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
